--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire 0.0.0.9000 (Responses).xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire 0.0.0.9000 (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
   <si>
     <t>Timestamp</t>
   </si>
@@ -664,6 +664,26 @@
         <v>15.0</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>43648.655496817126</v>
+      </c>
+      <c r="B29" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire 0.0.0.9000 (Responses).xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire 0.0.0.9000 (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
   <si>
     <t>Timestamp</t>
   </si>
@@ -684,6 +684,26 @@
         <v>40.0</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>43649.84578364583</v>
+      </c>
+      <c r="B30" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire 0.0.0.9000 (Responses).xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire 0.0.0.9000 (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
   <si>
     <t>Timestamp</t>
   </si>
@@ -704,6 +704,26 @@
         <v>7.0</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>43650.645501203704</v>
+      </c>
+      <c r="B31" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>12.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire 0.0.0.9000 (Responses).xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire 0.0.0.9000 (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="8">
   <si>
     <t>Timestamp</t>
   </si>
@@ -724,6 +724,66 @@
         <v>12.0</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>43653.66658502315</v>
+      </c>
+      <c r="B32" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>43653.66673715277</v>
+      </c>
+      <c r="B33" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>43653.66674359953</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire 0.0.0.9000 (Responses).xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire 0.0.0.9000 (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="8">
   <si>
     <t>Timestamp</t>
   </si>
@@ -784,6 +784,126 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>43653.667401597224</v>
+      </c>
+      <c r="B35" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>43653.667914791666</v>
+      </c>
+      <c r="B36" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>43653.66814608796</v>
+      </c>
+      <c r="B37" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>43653.66823862269</v>
+      </c>
+      <c r="B38" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>43653.6684553125</v>
+      </c>
+      <c r="B39" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>43653.66849556713</v>
+      </c>
+      <c r="B40" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>13.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire 0.0.0.9000 (Responses).xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire 0.0.0.9000 (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="8">
   <si>
     <t>Timestamp</t>
   </si>
@@ -904,6 +904,26 @@
         <v>13.0</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>43653.6699922338</v>
+      </c>
+      <c r="B41" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire 0.0.0.9000 (Responses).xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire 0.0.0.9000 (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="8">
   <si>
     <t>Timestamp</t>
   </si>
@@ -924,6 +924,26 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>43653.67571743055</v>
+      </c>
+      <c r="B42" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
